--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F4_relay_nrel.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F4_relay_nrel.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +87,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,7 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -185,9 +178,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -218,7 +208,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6225872" cy="4914679"/>
@@ -782,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +887,7 @@
       <c r="F2" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>3500</v>
       </c>
       <c r="H2" s="11">
@@ -909,7 +899,7 @@
       <c r="J2" s="6">
         <v>0</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>0.80187537387448016</v>
       </c>
       <c r="L2" s="6">
@@ -930,7 +920,7 @@
       <c r="Q2" s="6">
         <v>0</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="13">
         <v>0.80187537387448016</v>
       </c>
       <c r="S2" s="6">
@@ -965,7 +955,7 @@
       <c r="F3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>3500</v>
       </c>
       <c r="H3" s="11">
@@ -977,7 +967,7 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>0.20046884346862004</v>
       </c>
       <c r="L3" s="6">
@@ -998,7 +988,7 @@
       <c r="Q3" s="6">
         <v>0</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="13">
         <v>0.20046884346862004</v>
       </c>
       <c r="S3" s="6">
@@ -1033,7 +1023,7 @@
       <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>3500</v>
       </c>
       <c r="H4" s="11">
@@ -1045,7 +1035,7 @@
       <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>0.90210979560879001</v>
       </c>
       <c r="L4" s="6">
@@ -1066,7 +1056,7 @@
       <c r="Q4" s="6">
         <v>0</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="13">
         <v>0.90210979560879001</v>
       </c>
       <c r="S4" s="6">
@@ -1101,7 +1091,7 @@
       <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>3500</v>
       </c>
       <c r="H5" s="11">
@@ -1113,7 +1103,7 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>0.50117210867155004</v>
       </c>
       <c r="L5" s="6">
@@ -1134,7 +1124,7 @@
       <c r="Q5" s="6">
         <v>0</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="13">
         <v>0.50117210867155004</v>
       </c>
       <c r="S5" s="6">
@@ -1169,7 +1159,7 @@
       <c r="F6" s="5">
         <v>2</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>3500</v>
       </c>
       <c r="H6" s="11">
@@ -1181,7 +1171,7 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>0.40093768693724008</v>
       </c>
       <c r="L6" s="6">
@@ -1202,7 +1192,7 @@
       <c r="Q6" s="6">
         <v>0</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="13">
         <v>0.40093768693724008</v>
       </c>
       <c r="S6" s="6">
@@ -1237,7 +1227,7 @@
       <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>3500</v>
       </c>
       <c r="H7" s="11">
@@ -1249,7 +1239,7 @@
       <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <v>0.40093768693724008</v>
       </c>
       <c r="L7" s="6">
@@ -1270,7 +1260,7 @@
       <c r="Q7" s="6">
         <v>0</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="13">
         <v>0.40093768693724008</v>
       </c>
       <c r="S7" s="6">
@@ -1287,535 +1277,59 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>480</v>
-      </c>
-      <c r="C8" s="5">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2</v>
-      </c>
-      <c r="G8" s="13">
-        <v>3500</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>20</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="14">
-        <v>1.1856300170858387</v>
-      </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="P8" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="14">
-        <v>1.1856300170858387</v>
-      </c>
-      <c r="S8" s="6">
-        <v>1</v>
-      </c>
-      <c r="T8" s="6">
-        <v>1</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V8" s="6">
-        <v>1.2</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>480</v>
-      </c>
-      <c r="C9" s="5">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-      <c r="G9" s="13">
-        <v>3500</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>20</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <v>1.1856300170858387</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="O9" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="P9" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>0</v>
-      </c>
-      <c r="R9" s="14">
-        <v>1.1856300170858387</v>
-      </c>
-      <c r="S9" s="6">
-        <v>1</v>
-      </c>
-      <c r="T9" s="6">
-        <v>1</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V9" s="6">
-        <v>1.2</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>480</v>
-      </c>
-      <c r="C10" s="5">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2</v>
-      </c>
-      <c r="G10" s="13">
-        <v>3500</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>20</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="14">
-        <v>2.4700625355954968</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
-        <v>1</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="O10" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="P10" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10" s="14">
-        <v>2.4700625355954968</v>
-      </c>
-      <c r="S10" s="6">
-        <v>1</v>
-      </c>
-      <c r="T10" s="6">
-        <v>1</v>
-      </c>
-      <c r="U10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V10" s="6">
-        <v>1.2</v>
-      </c>
+    <row r="10" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>208</v>
-      </c>
-      <c r="C11" s="5">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" s="13">
-        <v>3500</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>20</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="14">
-        <v>2.4700625355954968</v>
-      </c>
-      <c r="L11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6">
-        <v>1</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="O11" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="P11" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="14">
-        <v>2.4700625355954968</v>
-      </c>
-      <c r="S11" s="6">
-        <v>1</v>
-      </c>
-      <c r="T11" s="6">
-        <v>1</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V11" s="6">
-        <v>1.2</v>
-      </c>
+    <row r="11" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>208</v>
-      </c>
-      <c r="C12" s="5">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2</v>
-      </c>
-      <c r="G12" s="13">
-        <v>3500</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>20</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="14">
-        <v>2.4700625355954968</v>
-      </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6">
-        <v>1</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="O12" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="P12" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>0</v>
-      </c>
-      <c r="R12" s="14">
-        <v>2.4700625355954968</v>
-      </c>
-      <c r="S12" s="6">
-        <v>1</v>
-      </c>
-      <c r="T12" s="6">
-        <v>1</v>
-      </c>
-      <c r="U12" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V12" s="6">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>208</v>
-      </c>
-      <c r="C13" s="5">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2</v>
-      </c>
-      <c r="G13" s="13">
-        <v>3500</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>20</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
-        <v>2.4700625355954968</v>
-      </c>
-      <c r="L13" s="6">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6">
-        <v>1</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="O13" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="P13" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="14">
-        <v>2.4700625355954968</v>
-      </c>
-      <c r="S13" s="6">
-        <v>1</v>
-      </c>
-      <c r="T13" s="6">
-        <v>1</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V13" s="6">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>208</v>
-      </c>
-      <c r="C14" s="5">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="13">
-        <v>3500</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>20</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="14">
-        <v>2.4700625355954968</v>
-      </c>
-      <c r="L14" s="6">
-        <v>1</v>
-      </c>
-      <c r="M14" s="6">
-        <v>1</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="O14" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="P14" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="14">
-        <v>2.4700625355954968</v>
-      </c>
-      <c r="S14" s="6">
-        <v>1</v>
-      </c>
-      <c r="T14" s="6">
-        <v>1</v>
-      </c>
-      <c r="U14" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V14" s="6">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+    <row r="12" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F4_relay_nrel.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F4_relay_nrel.xlsx
@@ -1145,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>480</v>
+        <v>208</v>
       </c>
       <c r="C6" s="5">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>480</v>
+        <v>208</v>
       </c>
       <c r="C7" s="5">
         <v>10</v>

--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F4_relay_nrel.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F4_relay_nrel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="7005" windowWidth="28830" windowHeight="2340"/>
+    <workbookView xWindow="-12" yWindow="7008" windowWidth="23256" windowHeight="2340"/>
   </bookViews>
   <sheets>
     <sheet name="relays" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>VRMSLL</t>
   </si>
@@ -59,6 +59,29 @@
   </si>
   <si>
     <t>CB Initial State [closed=1; open=0]</t>
+  </si>
+  <si>
+    <t>81U Trip Pickup [Hz]</t>
+  </si>
+  <si>
+    <t>81U Trip Delay [Sec]</t>
+  </si>
+  <si>
+    <t>81O Trip Pickup [Hz]</t>
+  </si>
+  <si>
+    <t>81O Trip Delay [Sec]</t>
+  </si>
+  <si>
+    <t>81RFRP
+[Hz/Sec]</t>
+  </si>
+  <si>
+    <t>81RFDFP
+[Hz]</t>
+  </si>
+  <si>
+    <t>81RF Trip Delay [Sec]</t>
   </si>
 </sst>
 </file>
@@ -482,6 +505,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>587022</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17213580" y="2240280"/>
+          <a:ext cx="3254022" cy="2568163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -772,35 +833,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE19" sqref="AD19:AE19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.140625" style="6" customWidth="1"/>
+    <col min="1" max="2" width="11.109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="6" customWidth="1"/>
-    <col min="12" max="15" width="12.5703125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" style="6" customWidth="1"/>
-    <col min="19" max="20" width="12.5703125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="12" style="6" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="4" width="14.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="6" customWidth="1"/>
+    <col min="12" max="15" width="12.5546875" style="6" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="13" style="6" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="6" customWidth="1"/>
+    <col min="20" max="21" width="9.109375" style="6"/>
+    <col min="22" max="22" width="11.109375" style="6" customWidth="1"/>
+    <col min="23" max="23" width="17.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" style="6" customWidth="1"/>
+    <col min="25" max="25" width="17.33203125" style="6" customWidth="1"/>
+    <col min="26" max="27" width="12.5546875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" style="6" customWidth="1"/>
+    <col min="29" max="29" width="12" style="6" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" style="6" customWidth="1"/>
+    <col min="31" max="31" width="13" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.6640625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="12.109375" style="6" customWidth="1"/>
+    <col min="34" max="35" width="9.109375" style="6"/>
+    <col min="36" max="36" width="11.109375" style="6" customWidth="1"/>
+    <col min="37" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -846,29 +919,71 @@
       <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="AD1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -915,28 +1030,70 @@
         <v>1.2</v>
       </c>
       <c r="P2" s="6">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>2</v>
+      </c>
+      <c r="R2" s="6">
+        <v>66</v>
+      </c>
+      <c r="S2" s="6">
+        <v>2</v>
+      </c>
+      <c r="T2" s="6">
+        <v>2</v>
+      </c>
+      <c r="U2" s="6">
+        <v>57</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W2" s="6">
         <v>20</v>
       </c>
-      <c r="Q2" s="6">
-        <v>0</v>
-      </c>
-      <c r="R2" s="13">
+      <c r="X2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="13">
         <v>0.80187537387448016</v>
       </c>
-      <c r="S2" s="6">
-        <v>1</v>
-      </c>
-      <c r="T2" s="6">
-        <v>1</v>
-      </c>
-      <c r="U2" s="6">
+      <c r="Z2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="6">
         <v>0.5</v>
       </c>
-      <c r="V2" s="6">
+      <c r="AC2" s="6">
         <v>1.2</v>
       </c>
+      <c r="AD2" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -983,28 +1140,70 @@
         <v>1.2</v>
       </c>
       <c r="P3" s="6">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>2</v>
+      </c>
+      <c r="R3" s="6">
+        <v>66</v>
+      </c>
+      <c r="S3" s="6">
+        <v>2</v>
+      </c>
+      <c r="T3" s="6">
+        <v>2</v>
+      </c>
+      <c r="U3" s="6">
+        <v>57</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W3" s="6">
         <v>20</v>
       </c>
-      <c r="Q3" s="6">
-        <v>0</v>
-      </c>
-      <c r="R3" s="13">
+      <c r="X3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="13">
         <v>0.20046884346862004</v>
       </c>
-      <c r="S3" s="6">
-        <v>1</v>
-      </c>
-      <c r="T3" s="6">
-        <v>1</v>
-      </c>
-      <c r="U3" s="6">
+      <c r="Z3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="6">
         <v>0.5</v>
       </c>
-      <c r="V3" s="6">
+      <c r="AC3" s="6">
         <v>1.2</v>
       </c>
+      <c r="AD3" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1051,28 +1250,70 @@
         <v>1.2</v>
       </c>
       <c r="P4" s="6">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>2</v>
+      </c>
+      <c r="R4" s="6">
+        <v>66</v>
+      </c>
+      <c r="S4" s="6">
+        <v>2</v>
+      </c>
+      <c r="T4" s="6">
+        <v>2</v>
+      </c>
+      <c r="U4" s="6">
+        <v>57</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W4" s="6">
         <v>20</v>
       </c>
-      <c r="Q4" s="6">
-        <v>0</v>
-      </c>
-      <c r="R4" s="13">
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="13">
         <v>0.90210979560879001</v>
       </c>
-      <c r="S4" s="6">
-        <v>1</v>
-      </c>
-      <c r="T4" s="6">
-        <v>1</v>
-      </c>
-      <c r="U4" s="6">
+      <c r="Z4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="6">
         <v>0.5</v>
       </c>
-      <c r="V4" s="6">
+      <c r="AC4" s="6">
         <v>1.2</v>
       </c>
+      <c r="AD4" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1119,28 +1360,70 @@
         <v>1.2</v>
       </c>
       <c r="P5" s="6">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>2</v>
+      </c>
+      <c r="R5" s="6">
+        <v>66</v>
+      </c>
+      <c r="S5" s="6">
+        <v>2</v>
+      </c>
+      <c r="T5" s="6">
+        <v>2</v>
+      </c>
+      <c r="U5" s="6">
+        <v>57</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W5" s="6">
         <v>20</v>
       </c>
-      <c r="Q5" s="6">
-        <v>0</v>
-      </c>
-      <c r="R5" s="13">
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="13">
         <v>0.50117210867155004</v>
       </c>
-      <c r="S5" s="6">
-        <v>1</v>
-      </c>
-      <c r="T5" s="6">
-        <v>1</v>
-      </c>
-      <c r="U5" s="6">
+      <c r="Z5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="6">
         <v>0.5</v>
       </c>
-      <c r="V5" s="6">
+      <c r="AC5" s="6">
         <v>1.2</v>
       </c>
+      <c r="AD5" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1187,28 +1470,70 @@
         <v>1.2</v>
       </c>
       <c r="P6" s="6">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>2</v>
+      </c>
+      <c r="R6" s="6">
+        <v>66</v>
+      </c>
+      <c r="S6" s="6">
+        <v>2</v>
+      </c>
+      <c r="T6" s="6">
+        <v>2</v>
+      </c>
+      <c r="U6" s="6">
+        <v>57</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W6" s="6">
         <v>20</v>
       </c>
-      <c r="Q6" s="6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="13">
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="13">
         <v>0.40093768693724008</v>
       </c>
-      <c r="S6" s="6">
-        <v>1</v>
-      </c>
-      <c r="T6" s="6">
-        <v>1</v>
-      </c>
-      <c r="U6" s="6">
+      <c r="Z6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="6">
         <v>0.5</v>
       </c>
-      <c r="V6" s="6">
+      <c r="AC6" s="6">
         <v>1.2</v>
       </c>
+      <c r="AD6" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1255,28 +1580,70 @@
         <v>1.2</v>
       </c>
       <c r="P7" s="6">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>2</v>
+      </c>
+      <c r="R7" s="6">
+        <v>66</v>
+      </c>
+      <c r="S7" s="6">
+        <v>2</v>
+      </c>
+      <c r="T7" s="6">
+        <v>2</v>
+      </c>
+      <c r="U7" s="6">
+        <v>57</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W7" s="6">
         <v>20</v>
       </c>
-      <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="13">
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="13">
         <v>0.40093768693724008</v>
       </c>
-      <c r="S7" s="6">
-        <v>1</v>
-      </c>
-      <c r="T7" s="6">
-        <v>1</v>
-      </c>
-      <c r="U7" s="6">
+      <c r="Z7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="6">
         <v>0.5</v>
       </c>
-      <c r="V7" s="6">
+      <c r="AC7" s="6">
         <v>1.2</v>
       </c>
+      <c r="AD7" s="6">
+        <v>54</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>66</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="D8" s="9"/>
@@ -1287,7 +1654,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="D9" s="9"/>
@@ -1298,7 +1665,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="D10" s="9"/>
@@ -1309,7 +1676,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="D11" s="9"/>
@@ -1320,7 +1687,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="D12" s="9"/>

--- a/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F4_relay_nrel.xlsx
+++ b/DistributionSystems/SimulinkOpal/Banshee/relay_settings/F4_relay_nrel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="7008" windowWidth="23256" windowHeight="2340"/>
+    <workbookView xWindow="-15" yWindow="7005" windowWidth="23250" windowHeight="2340"/>
   </bookViews>
   <sheets>
     <sheet name="relays" sheetId="1" r:id="rId1"/>
@@ -836,44 +836,44 @@
   <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE19" sqref="AD19:AE19"/>
+      <selection activeCell="AH2" sqref="AH2:AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.109375" style="6" customWidth="1"/>
+    <col min="1" max="2" width="11.140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="6" customWidth="1"/>
-    <col min="12" max="15" width="12.5546875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="6" customWidth="1"/>
+    <col min="12" max="15" width="12.5703125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="6" customWidth="1"/>
     <col min="17" max="17" width="13" style="6" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" style="6" customWidth="1"/>
-    <col min="20" max="21" width="9.109375" style="6"/>
-    <col min="22" max="22" width="11.109375" style="6" customWidth="1"/>
-    <col min="23" max="23" width="17.33203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="12.5546875" style="6" customWidth="1"/>
-    <col min="25" max="25" width="17.33203125" style="6" customWidth="1"/>
-    <col min="26" max="27" width="12.5546875" style="6" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" style="6" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" style="6" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="6"/>
+    <col min="22" max="22" width="11.140625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="6" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" style="6" customWidth="1"/>
+    <col min="26" max="27" width="12.5703125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" style="6" customWidth="1"/>
     <col min="29" max="29" width="12" style="6" customWidth="1"/>
-    <col min="30" max="30" width="13.44140625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="6" customWidth="1"/>
     <col min="31" max="31" width="13" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="12.109375" style="6" customWidth="1"/>
-    <col min="34" max="35" width="9.109375" style="6"/>
-    <col min="36" max="36" width="11.109375" style="6" customWidth="1"/>
-    <col min="37" max="16384" width="9.109375" style="6"/>
+    <col min="32" max="32" width="11.7109375" style="6" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" style="6" customWidth="1"/>
+    <col min="34" max="35" width="9.140625" style="6"/>
+    <col min="36" max="36" width="11.140625" style="6" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="7" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -983,7 +983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1042,13 +1042,13 @@
         <v>2</v>
       </c>
       <c r="T2" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U2" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V2" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W2" s="6">
         <v>20</v>
@@ -1084,16 +1084,16 @@
         <v>2</v>
       </c>
       <c r="AH2" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI2" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ2" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1152,13 +1152,13 @@
         <v>2</v>
       </c>
       <c r="T3" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U3" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V3" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W3" s="6">
         <v>20</v>
@@ -1194,16 +1194,16 @@
         <v>2</v>
       </c>
       <c r="AH3" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI3" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ3" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1262,13 +1262,13 @@
         <v>2</v>
       </c>
       <c r="T4" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U4" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V4" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W4" s="6">
         <v>20</v>
@@ -1304,16 +1304,16 @@
         <v>2</v>
       </c>
       <c r="AH4" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI4" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ4" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1372,13 +1372,13 @@
         <v>2</v>
       </c>
       <c r="T5" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U5" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V5" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W5" s="6">
         <v>20</v>
@@ -1414,16 +1414,16 @@
         <v>2</v>
       </c>
       <c r="AH5" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI5" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ5" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1482,13 +1482,13 @@
         <v>2</v>
       </c>
       <c r="T6" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U6" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V6" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W6" s="6">
         <v>20</v>
@@ -1524,16 +1524,16 @@
         <v>2</v>
       </c>
       <c r="AH6" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI6" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ6" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1592,13 +1592,13 @@
         <v>2</v>
       </c>
       <c r="T7" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="U7" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="V7" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="W7" s="6">
         <v>20</v>
@@ -1634,16 +1634,16 @@
         <v>2</v>
       </c>
       <c r="AH7" s="6">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AI7" s="6">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="AJ7" s="6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="D8" s="9"/>
@@ -1654,7 +1654,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="D9" s="9"/>
@@ -1665,7 +1665,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="D10" s="9"/>
@@ -1676,7 +1676,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="D11" s="9"/>
@@ -1687,7 +1687,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="D12" s="9"/>
